--- a/data/Cultural Pen-Pal Experiment (Responses).xlsx
+++ b/data/Cultural Pen-Pal Experiment (Responses).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="374">
   <si>
     <t>Timestamp</t>
   </si>
@@ -212,6 +212,18 @@
     <t>Turkish, English, (a bit) Dutch</t>
   </si>
   <si>
+    <t>Dutch English French</t>
+  </si>
+  <si>
+    <t>English dutch French</t>
+  </si>
+  <si>
+    <t>English Dutch German</t>
+  </si>
+  <si>
+    <t>English dutch German</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
@@ -296,6 +308,9 @@
     <t>qui est__?</t>
   </si>
   <si>
+    <t>endroit pour fumer</t>
+  </si>
+  <si>
     <t>What is Hello in Spanish?</t>
   </si>
   <si>
@@ -965,6 +980,9 @@
     <t>Quiero</t>
   </si>
   <si>
+    <t>Quiero __</t>
+  </si>
+  <si>
     <t>How would you ask what time it is now in French?</t>
   </si>
   <si>
@@ -1044,6 +1062,12 @@
   </si>
   <si>
     <t>Quelle est-il maintenant?</t>
+  </si>
+  <si>
+    <t>Quelle heure?</t>
+  </si>
+  <si>
+    <t>Je aller à __</t>
   </si>
   <si>
     <t>How would you ask what time it is now in German?</t>
@@ -1290,48 +1314,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
@@ -1374,6 +1356,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <bottom style="thin">
@@ -1397,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1443,14 +1467,14 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1470,20 +1494,14 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1671,7 +1689,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R57" displayName="Form_Responses9" name="Form_Responses9" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R60" displayName="Form_Responses9" name="Form_Responses9" id="1">
   <tableColumns count="18">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Please enter your participant ID" id="2"/>
@@ -1718,7 +1736,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M7" displayName="Form_Responses8" name="Form_Responses8" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M8" displayName="Form_Responses8" name="Form_Responses8" id="2">
   <tableColumns count="13">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Score" id="2"/>
@@ -1838,7 +1856,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M8" displayName="Form_Responses2" name="Form_Responses2" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Form_Responses2" name="Form_Responses2" id="8">
   <tableColumns count="13">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Score" id="2"/>
@@ -1859,7 +1877,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M7" displayName="Form_Responses1" name="Form_Responses1" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M8" displayName="Form_Responses1" name="Form_Responses1" id="9">
   <tableColumns count="13">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Score" id="2"/>
@@ -2434,6 +2452,9 @@
       <c r="Q6" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
@@ -2487,6 +2508,9 @@
       <c r="Q7" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="R7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
@@ -2988,6 +3012,9 @@
       <c r="Q16" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="R16" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
@@ -3041,6 +3068,9 @@
       <c r="Q17" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="R17" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
@@ -3094,6 +3124,9 @@
       <c r="Q18" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="R18" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="8">
@@ -3147,6 +3180,9 @@
       <c r="Q19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="R19" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -3200,6 +3236,9 @@
       <c r="Q20" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="R20" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="8">
@@ -3253,6 +3292,9 @@
       <c r="Q21" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="R21" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -3306,6 +3348,9 @@
       <c r="Q22" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="R22" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="8">
@@ -3359,6 +3404,9 @@
       <c r="Q23" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="R23" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -3412,6 +3460,9 @@
       <c r="Q24" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="R24" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="8">
@@ -3465,6 +3516,9 @@
       <c r="Q25" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="R25" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -4582,6 +4636,9 @@
       <c r="Q45" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="R45" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
@@ -4635,6 +4692,9 @@
       <c r="Q46" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="R46" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="8">
@@ -5197,24 +5257,228 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="17"/>
+      <c r="A57" s="8">
+        <v>45752.87938564815</v>
+      </c>
+      <c r="B57" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>45752.88458521991</v>
+      </c>
+      <c r="B58" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8">
+        <v>45752.88989929398</v>
+      </c>
+      <c r="B59" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="15">
+        <v>45752.89758101852</v>
+      </c>
+      <c r="B60" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5257,40 +5521,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
@@ -5304,34 +5568,34 @@
         <v>27.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
@@ -5345,34 +5609,34 @@
         <v>30.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4">
@@ -5386,34 +5650,34 @@
         <v>23.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
@@ -5427,34 +5691,34 @@
         <v>11.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
@@ -5468,75 +5732,116 @@
         <v>3.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6" s="6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>45751.61766416667</v>
+      </c>
+      <c r="B7" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15">
+        <v>45752.88904667824</v>
+      </c>
+      <c r="B8" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="E8" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>45751.61766416667</v>
-      </c>
-      <c r="B7" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>19.0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>333</v>
+      <c r="L8" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5580,40 +5885,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
@@ -5627,34 +5932,34 @@
         <v>25.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -5668,34 +5973,34 @@
         <v>9.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
@@ -5709,34 +6014,34 @@
         <v>17.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
@@ -5750,34 +6055,34 @@
         <v>15.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
@@ -5791,34 +6096,34 @@
         <v>13.0</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
@@ -5832,34 +6137,34 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>353</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8">
@@ -5873,75 +6178,75 @@
         <v>5.0</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="31">
+        <v>45751.58675243055</v>
+      </c>
+      <c r="B9" s="32">
+        <v>9.0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>21.0</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="E9" s="33" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="24">
-        <v>45751.58675243055</v>
-      </c>
-      <c r="B9" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="C9" s="26">
-        <v>21.0</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>360</v>
+      <c r="F9" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5984,40 +6289,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -6031,34 +6336,34 @@
         <v>27.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -6072,34 +6377,34 @@
         <v>30.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="L3" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -6113,34 +6418,34 @@
         <v>23.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -6154,34 +6459,34 @@
         <v>11.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -6195,75 +6500,116 @@
         <v>3.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>45751.61030717593</v>
+      </c>
+      <c r="B7" s="22">
+        <v>8.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="H7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15">
+        <v>45752.891412233796</v>
+      </c>
+      <c r="B8" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="I8" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>45751.61030717593</v>
-      </c>
-      <c r="B7" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>19.0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>90</v>
+      <c r="J8" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6305,81 +6651,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15">
+      <c r="A2" s="26">
         <v>45746.884932824076</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>9.0</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="28">
         <v>2.0</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>110</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -6393,34 +6739,34 @@
         <v>18.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -6434,34 +6780,34 @@
         <v>29.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -6475,34 +6821,34 @@
         <v>10.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -6516,34 +6862,34 @@
         <v>26.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -6557,34 +6903,34 @@
         <v>14.0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="J7" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -6598,34 +6944,75 @@
         <v>22.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="L8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="31">
+        <v>45752.884126226854</v>
+      </c>
+      <c r="B9" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="E9" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="G9" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>116</v>
+      <c r="H9" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6667,40 +7054,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
@@ -6714,34 +7101,34 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -6755,34 +7142,34 @@
         <v>8.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
@@ -6796,34 +7183,34 @@
         <v>20.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -6837,34 +7224,34 @@
         <v>28.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -6878,34 +7265,34 @@
         <v>24.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -6919,75 +7306,75 @@
         <v>16.0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15">
+        <v>45750.93329261574</v>
+      </c>
+      <c r="B8" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K8" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="33">
-        <v>45750.93329261574</v>
-      </c>
-      <c r="B8" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="35">
-        <v>12.0</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>156</v>
+      <c r="L8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7028,40 +7415,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -7075,34 +7462,34 @@
         <v>25.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -7116,34 +7503,34 @@
         <v>9.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -7157,34 +7544,34 @@
         <v>17.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -7198,34 +7585,34 @@
         <v>15.0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -7239,34 +7626,34 @@
         <v>13.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -7280,34 +7667,34 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -7321,75 +7708,75 @@
         <v>5.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="31">
+        <v>45751.59637951389</v>
+      </c>
+      <c r="B9" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>21.0</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="M9" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="24">
-        <v>45751.59637951389</v>
-      </c>
-      <c r="B9" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="C9" s="26">
-        <v>21.0</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7420,22 +7807,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
@@ -7443,22 +7830,22 @@
         <v>45741.73329984954</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -7466,22 +7853,22 @@
         <v>45741.97849040509</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -7489,22 +7876,22 @@
         <v>45742.38526747686</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="E4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5">
@@ -7512,22 +7899,22 @@
         <v>45742.3939168287</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
@@ -7535,22 +7922,22 @@
         <v>45742.44814782408</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
@@ -7558,22 +7945,22 @@
         <v>45742.501680393514</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -7581,22 +7968,22 @@
         <v>45742.56527461806</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -7604,22 +7991,22 @@
         <v>45742.56756480324</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -7627,22 +8014,22 @@
         <v>45742.865296689815</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -7650,22 +8037,22 @@
         <v>45745.52814609953</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
@@ -7673,22 +8060,22 @@
         <v>45746.52814814815</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13">
@@ -7696,22 +8083,22 @@
         <v>45746.72956420139</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -7719,22 +8106,22 @@
         <v>45746.7587356713</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -7742,22 +8129,22 @@
         <v>45746.88838902778</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
@@ -7765,22 +8152,22 @@
         <v>45746.89616443287</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
@@ -7788,22 +8175,22 @@
         <v>45746.91987791666</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -7811,22 +8198,22 @@
         <v>45746.98113681713</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -7834,22 +8221,22 @@
         <v>45747.423513333335</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -7857,22 +8244,22 @@
         <v>45747.474346550924</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -7880,22 +8267,22 @@
         <v>45747.51245484954</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
@@ -7903,22 +8290,22 @@
         <v>45747.51640087963</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -7926,22 +8313,22 @@
         <v>45747.54996567129</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -7949,22 +8336,22 @@
         <v>45747.58078769676</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" s="38">
+        <v>241</v>
+      </c>
+      <c r="C24" s="36">
         <v>6.57128241E8</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -7972,22 +8359,22 @@
         <v>45747.58250635417</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
@@ -7995,22 +8382,22 @@
         <v>45747.59167206018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -8018,22 +8405,22 @@
         <v>45747.60414063657</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -8041,22 +8428,22 @@
         <v>45748.55127003472</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
@@ -8064,45 +8451,45 @@
         <v>45749.51480167824</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="33">
+      <c r="A30" s="15">
         <v>45749.867692314816</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>190</v>
+      <c r="B30" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8127,413 +8514,413 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>250</v>
+      <c r="A1" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="40" t="str">
         <f>'Signup form'!B2</f>
         <v>Alex</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>18.0</v>
       </c>
-      <c r="C2" s="43" t="b">
+      <c r="C2" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="str">
+      <c r="A3" s="40" t="str">
         <f>'Signup form'!B3</f>
         <v>Reeve Lorena</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>23.0</v>
       </c>
-      <c r="C3" s="43" t="b">
+      <c r="C3" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="str">
+      <c r="A4" s="40" t="str">
         <f>'Signup form'!B4</f>
         <v>Pengxuan Huang</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>26.0</v>
       </c>
-      <c r="C4" s="43" t="b">
+      <c r="C4" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42" t="str">
+      <c r="A5" s="40" t="str">
         <f>'Signup form'!B5</f>
         <v>Gopal</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="41">
         <v>27.0</v>
       </c>
-      <c r="C5" s="43" t="b">
+      <c r="C5" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="str">
+      <c r="A6" s="40" t="str">
         <f>'Signup form'!B6</f>
         <v>Kanta Tanahashi</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="41">
         <v>10.0</v>
       </c>
-      <c r="C6" s="43" t="b">
+      <c r="C6" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="str">
+      <c r="A7" s="40" t="str">
         <f>'Signup form'!B8</f>
         <v>Cem</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>21.0</v>
       </c>
-      <c r="C7" s="43" t="b">
+      <c r="C7" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="40" t="str">
         <f>'Signup form'!B9</f>
         <v>Mustafa Doruk Ugur</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>19.0</v>
       </c>
-      <c r="C8" s="43" t="b">
+      <c r="C8" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42" t="str">
+      <c r="A9" s="40" t="str">
         <f>'Signup form'!B10</f>
         <v>Lennard van Hal</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>24.0</v>
       </c>
-      <c r="C9" s="43" t="b">
+      <c r="C9" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="str">
+      <c r="A10" s="40" t="str">
         <f>'Signup form'!B11</f>
         <v>Shreyas Kalvankar </v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>8.0</v>
       </c>
-      <c r="C10" s="43" t="b">
+      <c r="C10" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="str">
+      <c r="A11" s="40" t="str">
         <f>'Signup form'!B12</f>
         <v>Soham Kulthe</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>25.0</v>
       </c>
-      <c r="C11" s="43" t="b">
+      <c r="C11" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="str">
+      <c r="A12" s="40" t="str">
         <f>'Signup form'!B13</f>
         <v>Clarice Oordt</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>2.0</v>
       </c>
-      <c r="C12" s="43" t="b">
+      <c r="C12" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="str">
+      <c r="A13" s="40" t="str">
         <f>'Signup form'!B14</f>
         <v>Reynier de Graaff</v>
       </c>
-      <c r="C13" s="42" t="b">
+      <c r="C13" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="str">
+      <c r="A14" s="40" t="str">
         <f>'Signup form'!B15</f>
         <v>Marnix Visman</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>4.0</v>
       </c>
-      <c r="C14" s="43" t="b">
+      <c r="C14" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="43">
+      <c r="A15" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="41">
         <v>1.0</v>
       </c>
-      <c r="C15" s="42" t="b">
+      <c r="C15" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="str">
+      <c r="A16" s="40" t="str">
         <f>'Signup form'!B17</f>
         <v>Rodys</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="41">
         <v>12.0</v>
       </c>
-      <c r="C16" s="42" t="b">
+      <c r="C16" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42" t="str">
+      <c r="A17" s="40" t="str">
         <f>'Signup form'!B18</f>
         <v>Siddharth Sharma</v>
       </c>
-      <c r="C17" s="43" t="b">
+      <c r="C17" s="41" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="42" t="str">
+      <c r="A18" s="40" t="str">
         <f>'Signup form'!B19</f>
         <v>Vivian</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="41">
         <v>9.0</v>
       </c>
-      <c r="C18" s="43" t="b">
+      <c r="C18" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="str">
+      <c r="A19" s="40" t="str">
         <f>'Signup form'!B20</f>
         <v>Tereza Ležovičová</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="41">
         <v>17.0</v>
       </c>
-      <c r="C19" s="43" t="b">
+      <c r="C19" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="42" t="str">
+      <c r="A20" s="40" t="str">
         <f>'Signup form'!B21</f>
         <v>Lucia Navarcikova</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="41">
         <v>16.0</v>
       </c>
-      <c r="C20" s="43" t="b">
+      <c r="C20" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42" t="str">
+      <c r="A21" s="40" t="str">
         <f>'Signup form'!B22</f>
         <v>Eduard</v>
       </c>
-      <c r="C21" s="42" t="b">
+      <c r="C21" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="str">
+      <c r="A22" s="40" t="str">
         <f>'Signup form'!B23</f>
         <v>Selen Serhatli</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <v>20.0</v>
       </c>
-      <c r="C22" s="43" t="b">
+      <c r="C22" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="str">
+      <c r="A23" s="40" t="str">
         <f>'Signup form'!B24</f>
         <v>Lemon</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>30.0</v>
       </c>
-      <c r="C23" s="43" t="b">
+      <c r="C23" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="str">
+      <c r="A24" s="40" t="str">
         <f>'Signup form'!B25</f>
         <v>Sofia Burkow</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="41">
         <v>28.0</v>
       </c>
-      <c r="C24" s="43" t="b">
+      <c r="C24" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="str">
+      <c r="A25" s="40" t="str">
         <f>'Signup form'!B26</f>
         <v>Selin Ceydeli</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="41">
         <v>29.0</v>
       </c>
-      <c r="C25" s="43" t="b">
+      <c r="C25" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="str">
+      <c r="A26" s="40" t="str">
         <f>'Signup form'!B27</f>
         <v>Madalena Plácido</v>
       </c>
-      <c r="C26" s="42" t="b">
+      <c r="C26" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42" t="str">
+      <c r="A27" s="40" t="str">
         <f>'Signup form'!B28</f>
         <v>Joris</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="41">
         <v>15.0</v>
       </c>
-      <c r="C27" s="43" t="b">
+      <c r="C27" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="42" t="str">
+      <c r="A28" s="40" t="str">
         <f>'Signup form'!B29</f>
         <v>Mohit Valsangkar </v>
       </c>
-      <c r="C28" s="42" t="b">
+      <c r="C28" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="str">
+      <c r="A29" s="40" t="str">
         <f>'Signup form'!B30</f>
         <v>Yaren</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="41">
         <v>22.0</v>
       </c>
-      <c r="C29" s="43" t="b">
+      <c r="C29" s="41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="str">
+      <c r="A30" s="40" t="str">
         <f>'Signup form'!B31</f>
         <v/>
       </c>
-      <c r="C30" s="42" t="b">
+      <c r="C30" s="40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="str">
+      <c r="A31" s="40" t="str">
         <f>'Signup form'!B32</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="42" t="str">
+      <c r="A32" s="40" t="str">
         <f>'Signup form'!B51</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="str">
+      <c r="A33" s="40" t="str">
         <f>'Signup form'!B52</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="str">
+      <c r="A34" s="40" t="str">
         <f>'Signup form'!B53</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="42" t="str">
+      <c r="A35" s="40" t="str">
         <f>'Signup form'!B58</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="42" t="str">
+      <c r="A36" s="40" t="str">
         <f>'Signup form'!B59</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="str">
+      <c r="A37" s="40" t="str">
         <f>'Signup form'!B60</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="42" t="str">
+      <c r="A38" s="40" t="str">
         <f>'Signup form'!B61</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="str">
+      <c r="A39" s="40" t="str">
         <f>'Signup form'!B62</f>
         <v/>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="42" t="str">
+      <c r="A40" s="40" t="str">
         <f>'Signup form'!B63</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="str">
+      <c r="A41" s="40" t="str">
         <f>'Signup form'!B64</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="str">
+      <c r="A42" s="40" t="str">
         <f>'Signup form'!B65</f>
         <v/>
       </c>
@@ -8575,40 +8962,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -8622,34 +9009,34 @@
         <v>4.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
@@ -8663,34 +9050,34 @@
         <v>8.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -8704,34 +9091,34 @@
         <v>20.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
@@ -8745,34 +9132,34 @@
         <v>24.0</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>269</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -8786,75 +9173,75 @@
         <v>16.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="M6" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="31">
+        <v>45750.9460443287</v>
+      </c>
+      <c r="B7" s="32">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>45750.9460443287</v>
-      </c>
-      <c r="B7" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>12.0</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="I7" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>284</v>
+      <c r="K7" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -8898,40 +9285,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -8945,34 +9332,34 @@
         <v>2.0</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
@@ -8986,34 +9373,34 @@
         <v>18.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="J3" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
@@ -9027,34 +9414,34 @@
         <v>29.0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -9068,34 +9455,34 @@
         <v>10.0</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="M5" s="10" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
@@ -9109,34 +9496,34 @@
         <v>26.0</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="M6" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
@@ -9150,75 +9537,116 @@
         <v>14.0</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>45749.87525063657</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="F8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="31">
+        <v>45752.8786934838</v>
+      </c>
+      <c r="B9" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="F9" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="33">
-        <v>45749.87525063657</v>
-      </c>
-      <c r="B8" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="35">
-        <v>22.0</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="35" t="s">
+      <c r="H9" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>308</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
